--- a/Source/Excel/TAF2_PR-205a/PR-205a_SM.xlsx
+++ b/Source/Excel/TAF2_PR-205a/PR-205a_SM.xlsx
@@ -2610,8 +2610,8 @@
   <dimension ref="A1:S680"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P601" sqref="P601"/>
+      <pane ySplit="1" topLeftCell="A579" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A599" sqref="A599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33364,7 +33364,7 @@
         <v>0.5</v>
       </c>
       <c r="Q550" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R550" s="1">
         <v>1</v>
@@ -35056,7 +35056,7 @@
         <v>0.5</v>
       </c>
       <c r="Q588" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R588" s="1">
         <v>1</v>
